--- a/Data/OLD/2020 Coccinellidae.xlsx
+++ b/Data/OLD/2020 Coccinellidae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmanni12\Documents\GitHub\trapping_calibration\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmanni12\Documents\GitHub\trapping_calibration\Data\OLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17799E09-ABCE-48B3-B8BC-0ABDD247D263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B1A32-A28F-4641-B28F-F38F25811A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9630" windowWidth="29040" windowHeight="15840" xr2:uid="{CBE7EB6A-7489-4BE8-A86E-10CD16A0B1D3}"/>
+    <workbookView xWindow="29370" yWindow="-8940" windowWidth="21600" windowHeight="11265" xr2:uid="{CBE7EB6A-7489-4BE8-A86E-10CD16A0B1D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t>Site</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Cycloneda munda</t>
+  </si>
+  <si>
+    <t>mealybugs and scale insects</t>
+  </si>
+  <si>
+    <t>aphids (&amp; corn pollen)</t>
+  </si>
+  <si>
+    <t>aphids</t>
   </si>
 </sst>
 </file>
@@ -539,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EA6820-4516-41F1-899A-C36F98839214}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
@@ -822,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -836,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -850,10 +859,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
